--- a/ScumSprint/Stories.xlsx
+++ b/ScumSprint/Stories.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Story1</t>
   </si>
@@ -115,13 +115,31 @@
   </si>
   <si>
     <t>MySqlDatabase</t>
+  </si>
+  <si>
+    <t>Find youtube video advices</t>
+  </si>
+  <si>
+    <t>Make a new project</t>
+  </si>
+  <si>
+    <t>Design the registeration form</t>
+  </si>
+  <si>
+    <t>Write code for the background color of the application</t>
+  </si>
+  <si>
+    <t>Write code for he vision of the password edit text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-408]General"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +147,13 @@
       <family val="2"/>
       <charset val="161"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="8">
@@ -199,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -217,8 +243,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -782,7 +812,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +913,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -940,7 +970,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,44 +1044,59 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ScumSprint/Stories.xlsx
+++ b/ScumSprint/Stories.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Story1</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Write code for he vision of the password edit text</t>
+  </si>
+  <si>
+    <t>pushing to master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completing the first version </t>
+  </si>
+  <si>
+    <t>make Shopkeeper project</t>
+  </si>
+  <si>
+    <t>Testing github push and fetch</t>
+  </si>
+  <si>
+    <t>desing shopkeeper form</t>
+  </si>
+  <si>
+    <t>write code for applications buttons</t>
   </si>
 </sst>
 </file>
@@ -139,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-408]General"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +172,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -228,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -246,6 +272,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -812,7 +839,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +959,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -967,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,8 +1081,11 @@
       <c r="D3" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1064,6 +1094,9 @@
       </c>
       <c r="D4" s="14" t="s">
         <v>31</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1076,6 +1109,9 @@
       <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1087,6 +1123,9 @@
       <c r="D6" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="G6" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1097,6 +1136,14 @@
       </c>
       <c r="D7" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ScumSprint/Stories.xlsx
+++ b/ScumSprint/Stories.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2017\ScumSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vagrad/Documents/GitHub/Project2017/ScumSprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Story1</t>
   </si>
@@ -130,6 +136,36 @@
   </si>
   <si>
     <t>Write code for he vision of the password edit text</t>
+  </si>
+  <si>
+    <t>Testing github push and fech</t>
+  </si>
+  <si>
+    <t>make Shopkeeper project</t>
+  </si>
+  <si>
+    <t>desine shopkeeper form</t>
+  </si>
+  <si>
+    <t>whrite code for applications buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completing the first version </t>
+  </si>
+  <si>
+    <t>pushing to master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importing new setting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">whrite the code to merge the programs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn on youtube how to merge layout in androin studio </t>
   </si>
 </sst>
 </file>
@@ -156,7 +192,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -228,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -244,6 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,9 +638,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -627,9 +673,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -811,19 +857,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -859,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -875,7 +921,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -891,7 +937,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -907,7 +953,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -923,15 +969,15 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -939,7 +985,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -955,7 +1001,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -967,23 +1013,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1021,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1044,7 +1090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1054,8 +1100,11 @@
       <c r="D3" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1065,8 +1114,11 @@
       <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1076,8 +1128,11 @@
       <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1087,8 +1142,11 @@
       <c r="D6" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1097,6 +1155,34 @@
       </c>
       <c r="D7" s="14" t="s">
         <v>34</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G11" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G12" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ScumSprint/Stories.xlsx
+++ b/ScumSprint/Stories.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vagrad/Documents/GitHub/Project2017/ScumSprint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2017\ScumSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -138,18 +135,9 @@
     <t>Write code for he vision of the password edit text</t>
   </si>
   <si>
-    <t>Testing github push and fech</t>
-  </si>
-  <si>
     <t>make Shopkeeper project</t>
   </si>
   <si>
-    <t>desine shopkeeper form</t>
-  </si>
-  <si>
-    <t>whrite code for applications buttons</t>
-  </si>
-  <si>
     <t xml:space="preserve">completing the first version </t>
   </si>
   <si>
@@ -159,13 +147,22 @@
     <t xml:space="preserve">importing new setting </t>
   </si>
   <si>
-    <t xml:space="preserve">whrite the code to merge the programs </t>
-  </si>
-  <si>
     <t xml:space="preserve">merge complete </t>
   </si>
   <si>
-    <t xml:space="preserve">learn on youtube how to merge layout in androin studio </t>
+    <t>write code for applications buttons</t>
+  </si>
+  <si>
+    <t>desing shopkeeper form</t>
+  </si>
+  <si>
+    <t>Testing github push and fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write the code to merge the programs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn on youtube how to merge layout in android studio </t>
   </si>
 </sst>
 </file>
@@ -237,7 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,10 +285,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -857,19 +854,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -905,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -921,7 +918,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -937,7 +934,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -953,7 +950,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -969,23 +966,23 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +998,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1015,21 +1012,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1101,10 +1098,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1115,10 +1112,10 @@
         <v>31</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1129,10 +1126,10 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1143,10 +1140,10 @@
         <v>33</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1157,32 +1154,32 @@
         <v>34</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="G8" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="G9" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="G10" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G11" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="G11" s="15" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ScumSprint/Stories.xlsx
+++ b/ScumSprint/Stories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Story1</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">learn on youtube how to merge layout in android studio </t>
+  </si>
+  <si>
+    <t>Ερευνα και χρήση googlemaps</t>
+  </si>
+  <si>
+    <t>Ασχοληθηκα με τα layouts της εφαρμογης</t>
   </si>
 </sst>
 </file>
@@ -854,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1012,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1100,9 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" s="14" t="s">
         <v>30</v>
       </c>
@@ -1107,6 +1116,9 @@
       </c>
       <c r="B4" t="s">
         <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>31</v>

--- a/ScumSprint/Stories.xlsx
+++ b/ScumSprint/Stories.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Project2017\ScumSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vagrad/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="project GRAPH" sheetId="3" r:id="rId1"/>
+    <sheet name="TASKS" sheetId="1" r:id="rId2"/>
+    <sheet name="NOTES" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>Story1</t>
   </si>
@@ -75,9 +79,6 @@
     <t>ΒαγγέληςΒ</t>
   </si>
   <si>
-    <t>ΒαγγέληςΓ</t>
-  </si>
-  <si>
     <t>Γιώργος</t>
   </si>
   <si>
@@ -105,9 +106,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>To okeanos</t>
-  </si>
-  <si>
     <t>Αίτηση στον ωκεανο</t>
   </si>
   <si>
@@ -120,15 +118,6 @@
     <t>MySqlDatabase</t>
   </si>
   <si>
-    <t>Find youtube video advices</t>
-  </si>
-  <si>
-    <t>Make a new project</t>
-  </si>
-  <si>
-    <t>Design the registeration form</t>
-  </si>
-  <si>
     <t>Write code for the background color of the application</t>
   </si>
   <si>
@@ -169,6 +158,270 @@
   </si>
   <si>
     <t>Ασχοληθηκα με τα layouts της εφαρμογης</t>
+  </si>
+  <si>
+    <t>29-Nov</t>
+  </si>
+  <si>
+    <t>22-Nov</t>
+  </si>
+  <si>
+    <t>15-Nov</t>
+  </si>
+  <si>
+    <t>08-Nov</t>
+  </si>
+  <si>
+    <t>01-Nov</t>
+  </si>
+  <si>
+    <t>25-Oct</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>06-Dec</t>
+  </si>
+  <si>
+    <t>13-Dec</t>
+  </si>
+  <si>
+    <t>20-Dec</t>
+  </si>
+  <si>
+    <t>Βαγγέλης 4016</t>
+  </si>
+  <si>
+    <t>GITHUB ACOUNT/AND TEST PUSH/FETCH</t>
+  </si>
+  <si>
+    <t>LOGIN FORM RESEARCH</t>
+  </si>
+  <si>
+    <t>USER FORM RESEARCH</t>
+  </si>
+  <si>
+    <t>REGISTER FORM RESEARCH</t>
+  </si>
+  <si>
+    <t>CUSTOMER FORM RESEARCH</t>
+  </si>
+  <si>
+    <t>ORGANISE GITHUB &amp;DATABASE RESEARCH</t>
+  </si>
+  <si>
+    <t>TRANFERLOG &amp;DATABASE RESEARCH</t>
+  </si>
+  <si>
+    <t>DATABASE CREATION(OKEANOS)</t>
+  </si>
+  <si>
+    <t>LOGIN FORM CREATION</t>
+  </si>
+  <si>
+    <t>USER FORM CREATION</t>
+  </si>
+  <si>
+    <t>REGISTER FORM CREATION</t>
+  </si>
+  <si>
+    <t>CUSTOMER FORM CREATION</t>
+  </si>
+  <si>
+    <t>DATABASE  &amp;MAIN FORM CREATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN FORM CREATION </t>
+  </si>
+  <si>
+    <t>MAIN FORM TESTING</t>
+  </si>
+  <si>
+    <t>CONNECT LOGIN TO MAIN</t>
+  </si>
+  <si>
+    <t>CONNECT USER TO MAIN</t>
+  </si>
+  <si>
+    <t>CONNECT REGISTER TO MAIN</t>
+  </si>
+  <si>
+    <t>CONNECT CUSTOMER TO MAIN</t>
+  </si>
+  <si>
+    <t>DATABASE CONNECTION TO MAIN (ERROR SOLVING)</t>
+  </si>
+  <si>
+    <t>FINAL FORM FIX AND TESTING</t>
+  </si>
+  <si>
+    <t>FINAL DATABASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL CHANGES </t>
+  </si>
+  <si>
+    <t>CUSTOMISE DESIGN</t>
+  </si>
+  <si>
+    <t>ADD PRODUCTS TO DATABASE</t>
+  </si>
+  <si>
+    <t>PROBLEM SOLVE WITHDATABASE</t>
+  </si>
+  <si>
+    <t>REARCH HELP FOR DATABASE</t>
+  </si>
+  <si>
+    <t>TESTING FOR ALTERNATIVE DATABASE SOURCE</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>PRODUCT SHOWCASE</t>
+  </si>
+  <si>
+    <t>help with server conectivity</t>
+  </si>
+  <si>
+    <t>Testing Push &amp; Fetch</t>
+  </si>
+  <si>
+    <t>Organizing Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Task assignment </t>
+  </si>
+  <si>
+    <t>Main form complete</t>
+  </si>
+  <si>
+    <t>Main form testing(with other forms added</t>
+  </si>
+  <si>
+    <t>Final form tweeking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solving database problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">research about database errors </t>
+  </si>
+  <si>
+    <t>sovled 2/5 problems</t>
+  </si>
+  <si>
+    <t>Testing Push and Fetch</t>
+  </si>
+  <si>
+    <t>youtube research on Login form creation</t>
+  </si>
+  <si>
+    <t>github Form research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Login Version Complete </t>
+  </si>
+  <si>
+    <t>anding Facebook conect to login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merging with main </t>
+  </si>
+  <si>
+    <t>helping with tweeks</t>
+  </si>
+  <si>
+    <t>helping with database connectivity</t>
+  </si>
+  <si>
+    <t>tweeking Stories Excell</t>
+  </si>
+  <si>
+    <t>Push and Fetch Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn Android Studio form creation </t>
+  </si>
+  <si>
+    <t>researth Register Form how to</t>
+  </si>
+  <si>
+    <t>1st Register version Complete</t>
+  </si>
+  <si>
+    <t>ading Facebook Register to register form</t>
+  </si>
+  <si>
+    <t>Find youtube video advices about merging forms</t>
+  </si>
+  <si>
+    <t>connecting register with main form</t>
+  </si>
+  <si>
+    <t>reconecting fixed form</t>
+  </si>
+  <si>
+    <t>DATABASE RESEACH FOR HELP</t>
+  </si>
+  <si>
+    <t>RESEARCHING about database conectivity</t>
+  </si>
+  <si>
+    <t>1stdatabase connection attempt</t>
+  </si>
+  <si>
+    <t>Tranferlog complete</t>
+  </si>
+  <si>
+    <t>pushing to main</t>
+  </si>
+  <si>
+    <t>rebuilding Database to okeanos</t>
+  </si>
+  <si>
+    <t>fixing database with the help of youtube research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connecting Database with main </t>
+  </si>
+  <si>
+    <t>connecting tranferlog with main</t>
+  </si>
+  <si>
+    <t>solving Conectivity Problems</t>
+  </si>
+  <si>
+    <t>Testing github push and fetch to solve connectivity</t>
+  </si>
+  <si>
+    <t>researching Google about android Studio</t>
+  </si>
+  <si>
+    <t>Github search about userforms</t>
+  </si>
+  <si>
+    <t>Starting Userform</t>
+  </si>
+  <si>
+    <t>Completing Userform</t>
+  </si>
+  <si>
+    <t>researching on how to merge forms</t>
+  </si>
+  <si>
+    <t>merging to main</t>
+  </si>
+  <si>
+    <t>merging to main the updated userform version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative search for other databases </t>
   </si>
 </sst>
 </file>
@@ -178,7 +431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-408]General"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +447,46 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,18 +525,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,33 +571,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -302,27 +783,23 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
-      </border>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -335,16 +812,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -357,16 +835,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -379,16 +858,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -401,16 +881,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -423,16 +904,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -445,16 +927,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -467,16 +950,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -489,16 +973,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thick">
           <color auto="1"/>
         </left>
@@ -511,16 +996,17 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thick">
           <color auto="1"/>
@@ -531,12 +1017,6 @@
         <bottom style="thick">
           <color auto="1"/>
         </bottom>
-        <vertical style="thick">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thick">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -561,6 +1041,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF000000"/>
       <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
@@ -575,21 +1056,1061 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="1422400"/>
+          <a:ext cx="1447800" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CUSTOMER/BUSINES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="444500"/>
+          <a:ext cx="1689100" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>LOGIN/REGISTER</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="2628900"/>
+          <a:ext cx="1231900" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CUSTOMER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2959100" y="2603500"/>
+          <a:ext cx="1270000" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BUSINESS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Teardrop 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="3746500"/>
+          <a:ext cx="1358900" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="teardrop">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 72523"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>UPLOAD OR EDIT PRODUCTS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Teardrop 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3949700" y="3784600"/>
+          <a:ext cx="1422400" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="teardrop">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 68929"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SEARCH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FOR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> COMPETITION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="5740400"/>
+          <a:ext cx="1485900" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MAPS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Down Arrow 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="838200"/>
+          <a:ext cx="736600" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Down Arrow 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19485016">
+          <a:off x="3073400" y="2032000"/>
+          <a:ext cx="596900" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29310"/>
+            <a:gd name="adj2" fmla="val 44828"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>587546</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358946</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Down Arrow 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1562306">
+          <a:off x="1413046" y="2052301"/>
+          <a:ext cx="596900" cy="722773"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29310"/>
+            <a:gd name="adj2" fmla="val 44828"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Down Arrow 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1562306">
+          <a:off x="2755900" y="3378200"/>
+          <a:ext cx="596900" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29310"/>
+            <a:gd name="adj2" fmla="val 44828"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Down Arrow 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19485016">
+          <a:off x="3886200" y="3365500"/>
+          <a:ext cx="596900" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29310"/>
+            <a:gd name="adj2" fmla="val 44828"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>267933</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>39333</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Down Arrow 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2153737">
+          <a:off x="3569933" y="4625351"/>
+          <a:ext cx="596900" cy="1397885"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29310"/>
+            <a:gd name="adj2" fmla="val 44828"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>759677</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>531077</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Down Arrow 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20014242">
+          <a:off x="1585177" y="3360286"/>
+          <a:ext cx="596900" cy="2666266"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29310"/>
+            <a:gd name="adj2" fmla="val 44828"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122936</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28956</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Bent-Up Arrow 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4191000" y="2997200"/>
+          <a:ext cx="850392" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5903"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41656</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Bent-Up Arrow 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2319782" y="3093974"/>
+          <a:ext cx="850392" cy="453644"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5903"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3931231" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="508000"/>
+          <a:ext cx="3931231" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PROGRAMS NEEDED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1.ANDROID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> STUDIO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2.GITHUB DESKTOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3.EXCEL 2008 OR LATER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4.Xammp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:L7" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B1:L7"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Story1" dataDxfId="10"/>
-    <tableColumn id="2" name="Story2" dataDxfId="9"/>
-    <tableColumn id="3" name="Story3" dataDxfId="8"/>
-    <tableColumn id="4" name="Story4" dataDxfId="7"/>
-    <tableColumn id="5" name="Story5" dataDxfId="6"/>
-    <tableColumn id="6" name="Story6" dataDxfId="5"/>
-    <tableColumn id="7" name="Story7" dataDxfId="4"/>
-    <tableColumn id="8" name="Story8" dataDxfId="3"/>
-    <tableColumn id="9" name="Story9" dataDxfId="2"/>
-    <tableColumn id="10" name="Story10" dataDxfId="1"/>
-    <tableColumn id="11" name="Story11" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0">
+  <autoFilter ref="B2:K8"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="25-Oct" dataDxfId="10"/>
+    <tableColumn id="2" name="01-Nov" dataDxfId="9"/>
+    <tableColumn id="3" name="08-Nov" dataDxfId="8"/>
+    <tableColumn id="4" name="15-Nov" dataDxfId="7"/>
+    <tableColumn id="5" name="22-Nov" dataDxfId="6"/>
+    <tableColumn id="6" name="29-Nov" dataDxfId="5"/>
+    <tableColumn id="7" name="06-Dec" dataDxfId="4"/>
+    <tableColumn id="8" name="13-Dec" dataDxfId="3"/>
+    <tableColumn id="9" name="20-Dec" dataDxfId="2"/>
+    <tableColumn id="10" name="FINAL" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -858,153 +2379,1914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:W64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="10" width="11" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="10">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="10">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="10">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="10">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="10">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="10">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="10">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="10">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="32" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1014,187 +4296,647 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="62"/>
+    </row>
+    <row r="3" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="51">
+        <v>43030</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="52">
+        <v>43030</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="53">
+        <v>43030</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="54">
+        <v>43030</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="55">
+        <v>43033</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="56">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="33">
+        <v>43031</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="34">
+        <v>43031</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="37">
+        <v>43040</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="41">
+        <v>43031</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="39">
+        <v>43034</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="44">
+        <v>43033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="33">
+        <v>43040</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="34">
+        <v>43032</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="37">
+        <v>43041</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="41">
+        <v>43032</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="39">
+        <v>43035</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="44">
+        <v>43037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="33">
+        <v>43047</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="35">
+        <v>43040</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="37">
+        <v>43042</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="42">
+        <v>43040</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="39">
+        <v>43042</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="44">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="63">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="33">
+        <v>43048</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="35">
+        <v>43041</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="37">
+        <v>43047</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="42">
+        <v>43047</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="39">
+        <v>43043</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="44">
+        <v>43047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="63">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="33">
+        <v>43054</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="35">
+        <v>43048</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="37">
+        <v>43054</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="42">
+        <v>43061</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="39">
+        <v>43047</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="44">
+        <v>43061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="63">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="33">
+        <v>43055</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="35">
+        <v>43049</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="37">
+        <v>43062</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="42">
+        <v>43068</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="39">
+        <v>43048</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="44">
+        <v>43062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="63">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="33">
+        <v>43067</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="35">
+        <v>43050</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="37">
+        <v>43063</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="42">
+        <v>43070</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="39">
+        <v>43055</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="44">
+        <v>43068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="63">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="33">
+        <v>43068</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="35">
+        <v>43068</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="37">
+        <v>43068</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="42">
+        <v>43071</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="39">
+        <v>43067</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="44">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="63">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="33">
+        <v>43069</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="35">
+        <v>43070</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="37">
+        <v>43069</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="42">
+        <v>43072</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="39">
+        <v>43068</v>
+      </c>
+      <c r="L12" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G8" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="G9" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G10" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="M12" s="44">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="63">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="33">
+        <v>43070</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="35">
+        <v>43075</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="37">
+        <v>43073</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="42">
+        <v>43073</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="39">
+        <v>43070</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="44">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="63">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="33">
+        <v>43075</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="37">
+        <v>43075</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="39">
+        <v>43075</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="33">
+        <v>43075</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="38"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>